--- a/data-input/data-quality/data-quality.xlsx
+++ b/data-input/data-quality/data-quality.xlsx
@@ -826,7 +826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1159,7 +1161,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">

--- a/data-input/data-quality/data-quality.xlsx
+++ b/data-input/data-quality/data-quality.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amory Gethin\Dropbox\WID_Europe\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amory\Documents\GitHub\wid-world\data-input\data-quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -488,7 +488,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -826,17 +826,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,71 +844,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -916,15 +916,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -932,15 +932,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -956,7 +956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -964,7 +964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -972,15 +972,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -988,15 +988,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1004,71 +1004,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1076,23 +1076,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -1124,31 +1124,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -1164,23 +1164,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1196,39 +1196,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
@@ -1236,79 +1236,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B59" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>47</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
@@ -1324,15 +1324,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
@@ -1340,31 +1340,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B65" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
@@ -1380,23 +1380,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B69" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>58</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>59</v>
       </c>
@@ -1412,23 +1412,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>62</v>
       </c>
@@ -1436,15 +1436,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>64</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>65</v>
       </c>
@@ -1460,31 +1460,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B80" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>68</v>
       </c>
@@ -1492,23 +1492,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B84" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>70</v>
       </c>
@@ -1516,540 +1516,540 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B89" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B90" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B91" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B92" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B94" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B96" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B98" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B99" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B100" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B101" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B102" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B103" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B104" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B105" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B106" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B107" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B108" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B109" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B110" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B111" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B112" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B113" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B114" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B115" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B116" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B117" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B118" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B119" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B120" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B121" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B122" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B123" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B124" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B125" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B126" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B127" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B128" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B129" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B131" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B132" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B133" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B134" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B135" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B136" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B137" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B138" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B139" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B140" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B141" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B142" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B143" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B144" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B145" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B146" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B147" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B148" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B149" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B150" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B151" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B152" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data-input/data-quality/data-quality.xlsx
+++ b/data-input/data-quality/data-quality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amory Gethin\Dropbox\WID_Europe\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amory Gethin\Documents\GitHub\wid-world\data-input\data-quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -873,7 +873,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -897,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -921,7 +921,7 @@
         <v>87</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -929,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -937,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -977,7 +977,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -993,7 +993,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1001,7 +1001,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1009,7 +1009,7 @@
         <v>88</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1017,7 +1017,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1025,7 +1025,7 @@
         <v>90</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1033,7 +1033,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1041,7 +1041,7 @@
         <v>92</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1049,7 +1049,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1057,7 +1057,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1065,7 +1065,7 @@
         <v>95</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1073,7 +1073,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1081,7 +1081,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1089,7 +1089,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1105,7 +1105,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1121,7 +1121,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1129,7 +1129,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1145,7 +1145,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1169,7 +1169,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1177,7 +1177,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1201,7 +1201,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1209,7 +1209,7 @@
         <v>96</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1217,7 +1217,7 @@
         <v>37</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1225,7 +1225,7 @@
         <v>38</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1241,7 +1241,7 @@
         <v>40</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1249,7 +1249,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1257,7 +1257,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
         <v>44</v>
       </c>
       <c r="B55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1281,7 +1281,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>46</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1297,7 +1297,7 @@
         <v>97</v>
       </c>
       <c r="B58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1305,7 +1305,7 @@
         <v>98</v>
       </c>
       <c r="B59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1313,7 +1313,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1321,7 +1321,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1329,7 +1329,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1345,7 +1345,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1353,7 +1353,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1361,7 +1361,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1385,7 +1385,7 @@
         <v>56</v>
       </c>
       <c r="B69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1393,7 +1393,7 @@
         <v>57</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1417,7 +1417,7 @@
         <v>60</v>
       </c>
       <c r="B73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1425,7 +1425,7 @@
         <v>61</v>
       </c>
       <c r="B74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1441,7 +1441,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1449,7 +1449,7 @@
         <v>64</v>
       </c>
       <c r="B77" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1465,7 +1465,7 @@
         <v>66</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1473,7 +1473,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1481,7 +1481,7 @@
         <v>67</v>
       </c>
       <c r="B81" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1497,7 +1497,7 @@
         <v>69</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1505,7 +1505,7 @@
         <v>100</v>
       </c>
       <c r="B84" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1521,7 +1521,7 @@
         <v>101</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1529,7 +1529,7 @@
         <v>102</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1537,7 +1537,7 @@
         <v>103</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1545,7 +1545,7 @@
         <v>104</v>
       </c>
       <c r="B89" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1553,7 +1553,7 @@
         <v>105</v>
       </c>
       <c r="B90" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1561,7 +1561,7 @@
         <v>106</v>
       </c>
       <c r="B91" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1569,7 +1569,7 @@
         <v>107</v>
       </c>
       <c r="B92" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1577,7 +1577,7 @@
         <v>108</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1585,7 +1585,7 @@
         <v>109</v>
       </c>
       <c r="B94" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1593,7 +1593,7 @@
         <v>110</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1601,7 +1601,7 @@
         <v>111</v>
       </c>
       <c r="B96" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1609,7 +1609,7 @@
         <v>112</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -1617,7 +1617,7 @@
         <v>113</v>
       </c>
       <c r="B98" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1625,7 +1625,7 @@
         <v>114</v>
       </c>
       <c r="B99" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -1633,7 +1633,7 @@
         <v>115</v>
       </c>
       <c r="B100" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1641,7 +1641,7 @@
         <v>116</v>
       </c>
       <c r="B101" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -1649,7 +1649,7 @@
         <v>117</v>
       </c>
       <c r="B102" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1657,7 +1657,7 @@
         <v>118</v>
       </c>
       <c r="B103" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -1665,7 +1665,7 @@
         <v>119</v>
       </c>
       <c r="B104" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -1673,7 +1673,7 @@
         <v>120</v>
       </c>
       <c r="B105" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -1681,7 +1681,7 @@
         <v>121</v>
       </c>
       <c r="B106" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -1689,7 +1689,7 @@
         <v>122</v>
       </c>
       <c r="B107" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -1697,7 +1697,7 @@
         <v>123</v>
       </c>
       <c r="B108" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -1705,7 +1705,7 @@
         <v>124</v>
       </c>
       <c r="B109" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -1713,7 +1713,7 @@
         <v>125</v>
       </c>
       <c r="B110" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -1721,7 +1721,7 @@
         <v>126</v>
       </c>
       <c r="B111" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -1729,7 +1729,7 @@
         <v>127</v>
       </c>
       <c r="B112" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -1737,7 +1737,7 @@
         <v>128</v>
       </c>
       <c r="B113" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -1745,7 +1745,7 @@
         <v>129</v>
       </c>
       <c r="B114" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -1753,7 +1753,7 @@
         <v>130</v>
       </c>
       <c r="B115" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -1761,7 +1761,7 @@
         <v>131</v>
       </c>
       <c r="B116" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -1769,7 +1769,7 @@
         <v>132</v>
       </c>
       <c r="B117" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -1777,7 +1777,7 @@
         <v>133</v>
       </c>
       <c r="B118" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -1785,7 +1785,7 @@
         <v>134</v>
       </c>
       <c r="B119" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -1793,7 +1793,7 @@
         <v>135</v>
       </c>
       <c r="B120" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -1801,7 +1801,7 @@
         <v>136</v>
       </c>
       <c r="B121" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -1809,7 +1809,7 @@
         <v>137</v>
       </c>
       <c r="B122" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -1817,7 +1817,7 @@
         <v>138</v>
       </c>
       <c r="B123" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -1825,7 +1825,7 @@
         <v>139</v>
       </c>
       <c r="B124" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -1833,7 +1833,7 @@
         <v>140</v>
       </c>
       <c r="B125" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -1841,7 +1841,7 @@
         <v>141</v>
       </c>
       <c r="B126" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -1849,7 +1849,7 @@
         <v>142</v>
       </c>
       <c r="B127" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -1857,7 +1857,7 @@
         <v>143</v>
       </c>
       <c r="B128" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -1865,7 +1865,7 @@
         <v>144</v>
       </c>
       <c r="B129" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -1873,7 +1873,7 @@
         <v>145</v>
       </c>
       <c r="B130" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -1881,7 +1881,7 @@
         <v>146</v>
       </c>
       <c r="B131" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -1889,7 +1889,7 @@
         <v>147</v>
       </c>
       <c r="B132" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -1897,7 +1897,7 @@
         <v>148</v>
       </c>
       <c r="B133" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -1905,7 +1905,7 @@
         <v>149</v>
       </c>
       <c r="B134" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -1913,7 +1913,7 @@
         <v>150</v>
       </c>
       <c r="B135" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -1921,7 +1921,7 @@
         <v>151</v>
       </c>
       <c r="B136" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -1929,7 +1929,7 @@
         <v>152</v>
       </c>
       <c r="B137" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -1953,7 +1953,7 @@
         <v>73</v>
       </c>
       <c r="B140" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -1961,7 +1961,7 @@
         <v>74</v>
       </c>
       <c r="B141" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -1969,7 +1969,7 @@
         <v>75</v>
       </c>
       <c r="B142" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -1977,7 +1977,7 @@
         <v>76</v>
       </c>
       <c r="B143" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -1985,7 +1985,7 @@
         <v>77</v>
       </c>
       <c r="B144" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -1993,7 +1993,7 @@
         <v>78</v>
       </c>
       <c r="B145" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -2001,7 +2001,7 @@
         <v>79</v>
       </c>
       <c r="B146" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -2009,7 +2009,7 @@
         <v>80</v>
       </c>
       <c r="B147" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -2017,7 +2017,7 @@
         <v>81</v>
       </c>
       <c r="B148" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -2025,7 +2025,7 @@
         <v>82</v>
       </c>
       <c r="B149" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -2033,7 +2033,7 @@
         <v>83</v>
       </c>
       <c r="B150" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -2041,7 +2041,7 @@
         <v>84</v>
       </c>
       <c r="B151" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -2049,7 +2049,7 @@
         <v>85</v>
       </c>
       <c r="B152" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data-input/data-quality/data-quality.xlsx
+++ b/data-input/data-quality/data-quality.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>iso</t>
   </si>
@@ -483,6 +483,162 @@
   </si>
   <si>
     <t>UY</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>QK</t>
+  </si>
+  <si>
+    <t>QN</t>
+  </si>
+  <si>
+    <t>QO</t>
+  </si>
+  <si>
+    <t>QT</t>
+  </si>
+  <si>
+    <t>QV</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>ZW</t>
   </si>
 </sst>
 </file>
@@ -548,8 +704,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B152" totalsRowShown="0">
-  <autoFilter ref="A1:B152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B204" totalsRowShown="0">
+  <autoFilter ref="A1:B204"/>
   <sortState ref="A2:B84">
     <sortCondition ref="A1:A84"/>
   </sortState>
@@ -824,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1294,7 +1450,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B58" s="1">
         <v>3</v>
@@ -1302,15 +1458,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -1318,55 +1474,55 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B61" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B64" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B66" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1">
         <v>4</v>
@@ -1374,15 +1530,15 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B68" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B69" s="1">
         <v>3</v>
@@ -1390,15 +1546,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B70" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B71" s="1">
         <v>4</v>
@@ -1406,15 +1562,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B72" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
@@ -1422,103 +1578,103 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B75" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B76" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B77" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B78" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B79" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B80" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B81" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B83" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B85" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B86" s="1">
         <v>3</v>
@@ -1526,7 +1682,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B87" s="1">
         <v>3</v>
@@ -1534,7 +1690,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B88" s="1">
         <v>3</v>
@@ -1542,7 +1698,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -1550,7 +1706,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" s="1">
         <v>3</v>
@@ -1558,7 +1714,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -1566,7 +1722,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B92" s="1">
         <v>3</v>
@@ -1574,7 +1730,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B93" s="1">
         <v>3</v>
@@ -1582,7 +1738,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B94" s="1">
         <v>3</v>
@@ -1590,7 +1746,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B95" s="1">
         <v>3</v>
@@ -1598,7 +1754,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B96" s="1">
         <v>3</v>
@@ -1606,7 +1762,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B97" s="1">
         <v>3</v>
@@ -1614,7 +1770,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="1">
         <v>3</v>
@@ -1622,7 +1778,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B99" s="1">
         <v>3</v>
@@ -1630,7 +1786,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B100" s="1">
         <v>3</v>
@@ -1638,7 +1794,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -1646,7 +1802,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -1654,7 +1810,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -1662,7 +1818,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -1670,7 +1826,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B105" s="1">
         <v>3</v>
@@ -1678,7 +1834,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B106" s="1">
         <v>3</v>
@@ -1686,7 +1842,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B107" s="1">
         <v>3</v>
@@ -1694,7 +1850,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B108" s="1">
         <v>3</v>
@@ -1702,7 +1858,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B109" s="1">
         <v>3</v>
@@ -1710,7 +1866,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B110" s="1">
         <v>3</v>
@@ -1718,7 +1874,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B111" s="1">
         <v>3</v>
@@ -1726,7 +1882,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B112" s="1">
         <v>3</v>
@@ -1734,7 +1890,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B113" s="1">
         <v>3</v>
@@ -1742,7 +1898,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B114" s="1">
         <v>3</v>
@@ -1750,7 +1906,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B115" s="1">
         <v>3</v>
@@ -1758,7 +1914,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B116" s="1">
         <v>3</v>
@@ -1766,7 +1922,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B117" s="1">
         <v>3</v>
@@ -1774,7 +1930,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B118" s="1">
         <v>3</v>
@@ -1782,7 +1938,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B119" s="1">
         <v>3</v>
@@ -1790,7 +1946,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B120" s="1">
         <v>3</v>
@@ -1798,7 +1954,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B121" s="1">
         <v>3</v>
@@ -1806,7 +1962,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B122" s="1">
         <v>3</v>
@@ -1814,7 +1970,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B123" s="1">
         <v>3</v>
@@ -1822,7 +1978,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B124" s="1">
         <v>3</v>
@@ -1830,7 +1986,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B125" s="1">
         <v>3</v>
@@ -1838,7 +1994,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B126" s="1">
         <v>3</v>
@@ -1846,7 +2002,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B127" s="1">
         <v>3</v>
@@ -1854,7 +2010,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B128" s="1">
         <v>3</v>
@@ -1862,7 +2018,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B129" s="1">
         <v>3</v>
@@ -1870,7 +2026,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B130" s="1">
         <v>3</v>
@@ -1878,7 +2034,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B131" s="1">
         <v>3</v>
@@ -1886,7 +2042,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B132" s="1">
         <v>3</v>
@@ -1894,7 +2050,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B133" s="1">
         <v>3</v>
@@ -1902,7 +2058,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B134" s="1">
         <v>3</v>
@@ -1910,7 +2066,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B135" s="1">
         <v>3</v>
@@ -1918,7 +2074,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B136" s="1">
         <v>3</v>
@@ -1926,7 +2082,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="B137" s="1">
         <v>3</v>
@@ -1934,7 +2090,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B138" s="1">
         <v>3</v>
@@ -1942,7 +2098,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B139" s="1">
         <v>3</v>
@@ -1950,7 +2106,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B140" s="1">
         <v>3</v>
@@ -1958,7 +2114,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B141" s="1">
         <v>3</v>
@@ -1966,7 +2122,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B142" s="1">
         <v>3</v>
@@ -1974,7 +2130,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B143" s="1">
         <v>3</v>
@@ -1982,7 +2138,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B144" s="1">
         <v>3</v>
@@ -1990,7 +2146,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B145" s="1">
         <v>3</v>
@@ -1998,7 +2154,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B146" s="1">
         <v>3</v>
@@ -2006,7 +2162,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B147" s="1">
         <v>3</v>
@@ -2014,7 +2170,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B148" s="1">
         <v>3</v>
@@ -2022,7 +2178,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B149" s="1">
         <v>3</v>
@@ -2030,26 +2186,442 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B150" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B151" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="B152" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data-input/data-quality/data-quality.xlsx
+++ b/data-input/data-quality/data-quality.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>iso</t>
   </si>
@@ -639,6 +639,24 @@
   </si>
   <si>
     <t>ZW</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>QF</t>
   </si>
 </sst>
 </file>
@@ -704,8 +722,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B204" totalsRowShown="0">
-  <autoFilter ref="A1:B204"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B210" totalsRowShown="0">
+  <autoFilter ref="A1:B210"/>
   <sortState ref="A2:B84">
     <sortCondition ref="A1:A84"/>
   </sortState>
@@ -980,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1453,7 +1471,7 @@
         <v>98</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2622,6 +2640,54 @@
       </c>
       <c r="B204" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data-input/data-quality/data-quality.xlsx
+++ b/data-input/data-quality/data-quality.xlsx
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,7 +1263,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -2223,7 +2223,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -2231,7 +2231,7 @@
         <v>154</v>
       </c>
       <c r="B153" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -2239,7 +2239,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -2247,7 +2247,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -2255,7 +2255,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -2263,7 +2263,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -2271,7 +2271,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -2279,7 +2279,7 @@
         <v>160</v>
       </c>
       <c r="B159" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -2287,7 +2287,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -2295,7 +2295,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -2303,7 +2303,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -2311,7 +2311,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -2319,7 +2319,7 @@
         <v>165</v>
       </c>
       <c r="B164" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -2327,7 +2327,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -2335,7 +2335,7 @@
         <v>167</v>
       </c>
       <c r="B166" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -2343,7 +2343,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -2351,7 +2351,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -2359,7 +2359,7 @@
         <v>170</v>
       </c>
       <c r="B169" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -2367,7 +2367,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -2375,7 +2375,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -2383,7 +2383,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -2391,7 +2391,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -2399,7 +2399,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -2407,7 +2407,7 @@
         <v>176</v>
       </c>
       <c r="B175" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -2415,7 +2415,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -2423,7 +2423,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -2431,7 +2431,7 @@
         <v>97</v>
       </c>
       <c r="B178" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -2439,7 +2439,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -2447,7 +2447,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -2455,7 +2455,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -2463,7 +2463,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -2471,7 +2471,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -2527,7 +2527,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -2535,7 +2535,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -2543,7 +2543,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -2551,7 +2551,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -2559,7 +2559,7 @@
         <v>194</v>
       </c>
       <c r="B194" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -2567,7 +2567,7 @@
         <v>195</v>
       </c>
       <c r="B195" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -2575,7 +2575,7 @@
         <v>196</v>
       </c>
       <c r="B196" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -2583,7 +2583,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -2591,7 +2591,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -2599,7 +2599,7 @@
         <v>199</v>
       </c>
       <c r="B199" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -2607,7 +2607,7 @@
         <v>200</v>
       </c>
       <c r="B200" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -2615,7 +2615,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -2623,7 +2623,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -2631,7 +2631,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -2639,7 +2639,7 @@
         <v>204</v>
       </c>
       <c r="B204" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -2687,7 +2687,7 @@
         <v>210</v>
       </c>
       <c r="B210" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data-input/data-quality/data-quality.xlsx
+++ b/data-input/data-quality/data-quality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amory Gethin\Documents\GitHub\wid-world\data-input\data-quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasblanchet/GitHub/wid-world/data-input/data-quality/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DFCEE6-0C8B-C344-B11F-CBA4D41002D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25300" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>iso</t>
   </si>
@@ -657,12 +658,15 @@
   </si>
   <si>
     <t>QF</t>
+  </si>
+  <si>
+    <t>XM-MER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,14 +726,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:B210" totalsRowShown="0">
-  <autoFilter ref="A1:B210"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:B211" totalsRowShown="0">
+  <autoFilter ref="A1:B211" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:B84">
     <sortCondition ref="A1:A84"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="iso" dataDxfId="1"/>
-    <tableColumn id="2" name="quality" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="iso" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="quality" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,20 +1001,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1034,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -1194,7 +1198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
@@ -1210,7 +1214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -1282,7 +1286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -1298,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -1354,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1370,7 +1374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -1386,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>43</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>44</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
@@ -1458,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
@@ -1466,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>47</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>50</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>51</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>52</v>
       </c>
@@ -1522,7 +1526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>53</v>
       </c>
@@ -1530,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>55</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>54</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>57</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>58</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>59</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>60</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>61</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>62</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>63</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>64</v>
       </c>
@@ -1618,7 +1622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>65</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>66</v>
       </c>
@@ -1634,7 +1638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>99</v>
       </c>
@@ -1642,7 +1646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>68</v>
       </c>
@@ -1658,7 +1662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>69</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>70</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>101</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>102</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>103</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>105</v>
       </c>
@@ -1722,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>106</v>
       </c>
@@ -1730,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
@@ -1738,7 +1742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>108</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>109</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>110</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -1770,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>113</v>
       </c>
@@ -1786,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>114</v>
       </c>
@@ -1794,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -1810,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>117</v>
       </c>
@@ -1818,7 +1822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>118</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -1834,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -1850,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
@@ -1858,7 +1862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
@@ -1874,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>127</v>
       </c>
@@ -1898,7 +1902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>129</v>
       </c>
@@ -1914,7 +1918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
@@ -1922,7 +1926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>131</v>
       </c>
@@ -1930,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>133</v>
       </c>
@@ -1946,7 +1950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>134</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>135</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>136</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>137</v>
       </c>
@@ -1978,7 +1982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>138</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>139</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>140</v>
       </c>
@@ -2002,7 +2006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>142</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -2026,7 +2030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>144</v>
       </c>
@@ -2034,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -2042,7 +2046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>146</v>
       </c>
@@ -2050,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>147</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>148</v>
       </c>
@@ -2066,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -2074,7 +2078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>150</v>
       </c>
@@ -2082,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -2090,7 +2094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>152</v>
       </c>
@@ -2098,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>71</v>
       </c>
@@ -2106,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>72</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>73</v>
       </c>
@@ -2122,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>74</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>75</v>
       </c>
@@ -2138,7 +2142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>76</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>77</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>78</v>
       </c>
@@ -2162,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>79</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>80</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>81</v>
       </c>
@@ -2186,7 +2190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>82</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>83</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>84</v>
       </c>
@@ -2210,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>85</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -2250,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -2266,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -2298,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -2314,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -2322,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -2330,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -2362,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -2386,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -2402,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -2410,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>97</v>
       </c>
@@ -2434,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
@@ -2450,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
@@ -2466,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
@@ -2482,7 +2486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
@@ -2506,7 +2510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
@@ -2522,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
@@ -2546,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
@@ -2570,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
@@ -2578,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
@@ -2586,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
@@ -2602,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
@@ -2610,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
@@ -2626,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
@@ -2634,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
@@ -2642,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>205</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>206</v>
       </c>
@@ -2658,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>208</v>
       </c>
@@ -2674,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>209</v>
       </c>
@@ -2682,12 +2686,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B210" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data-input/data-quality/data-quality.xlsx
+++ b/data-input/data-quality/data-quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasblanchet/GitHub/wid-world/data-input/data-quality/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowaidakhaled/Documents/GitHub/wid-world/data-input/data-quality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DFCEE6-0C8B-C344-B11F-CBA4D41002D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D3B7A8-1E21-6949-8930-F7B237769093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25300" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="-21880" windowWidth="25300" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>iso</t>
   </si>
@@ -661,6 +661,60 @@
   </si>
   <si>
     <t>XM-MER</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>JP</t>
   </si>
 </sst>
 </file>
@@ -726,8 +780,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:B211" totalsRowShown="0">
-  <autoFilter ref="A1:B211" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:B229" totalsRowShown="0">
+  <autoFilter ref="A1:B229" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:B84">
     <sortCondition ref="A1:A84"/>
   </sortState>
@@ -1002,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2702,6 +2756,150 @@
         <v>3</v>
       </c>
     </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data-input/data-quality/data-quality.xlsx
+++ b/data-input/data-quality/data-quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowaidakhaled/Documents/GitHub/wid-world/data-input/data-quality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D3B7A8-1E21-6949-8930-F7B237769093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0419E511-53A3-7C45-B1DC-6AC89FCA56AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="-21880" windowWidth="25300" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8300" yWindow="460" windowWidth="25300" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>iso</t>
   </si>
@@ -715,6 +715,24 @@
   </si>
   <si>
     <t>JP</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>MO</t>
   </si>
 </sst>
 </file>
@@ -780,8 +798,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:B229" totalsRowShown="0">
-  <autoFilter ref="A1:B229" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:B235" totalsRowShown="0">
+  <autoFilter ref="A1:B235" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:B84">
     <sortCondition ref="A1:A84"/>
   </sortState>
@@ -1056,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2900,6 +2918,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data-input/data-quality/data-quality.xlsx
+++ b/data-input/data-quality/data-quality.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowaidakhaled/Documents/GitHub/wid-world/data-input/data-quality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0419E511-53A3-7C45-B1DC-6AC89FCA56AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A837866-6FB5-DE43-B4D0-7BF0E5019C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8300" yWindow="460" windowWidth="25300" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>iso</t>
   </si>
@@ -733,6 +733,12 @@
   </si>
   <si>
     <t>MO</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PG</t>
   </si>
 </sst>
 </file>
@@ -798,8 +804,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:B235" totalsRowShown="0">
-  <autoFilter ref="A1:B235" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:B237" totalsRowShown="0">
+  <autoFilter ref="A1:B237" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:B84">
     <sortCondition ref="A1:A84"/>
   </sortState>
@@ -1074,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2966,6 +2972,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data-input/data-quality/data-quality.xlsx
+++ b/data-input/data-quality/data-quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowaidakhaled/Documents/GitHub/wid-world/data-input/data-quality/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowaidamoshrif/Documents/GitHub/wid-world/data-input/data-quality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A837866-6FB5-DE43-B4D0-7BF0E5019C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF351DA-826D-0245-BC70-4DFD425F1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="460" windowWidth="25300" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8300" yWindow="760" windowWidth="25300" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>iso</t>
   </si>
@@ -117,9 +117,6 @@
     <t>HU</t>
   </si>
   <si>
-    <t>IE</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
@@ -739,6 +736,12 @@
   </si>
   <si>
     <t>PG</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>HK</t>
   </si>
 </sst>
 </file>
@@ -804,10 +807,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:B237" totalsRowShown="0">
-  <autoFilter ref="A1:B237" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:B84">
-    <sortCondition ref="A1:A84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:B238" totalsRowShown="0">
+  <autoFilter ref="A1:B238" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B85">
+    <sortCondition ref="A1:A85"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="iso" dataDxfId="1"/>
@@ -1080,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B237"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1129,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1174,7 +1177,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -1246,31 +1249,31 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
@@ -1278,7 +1281,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -1286,7 +1289,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -1294,7 +1297,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
@@ -1302,7 +1305,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -1310,7 +1313,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -1326,87 +1329,87 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
@@ -1414,7 +1417,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -1422,15 +1425,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -1438,15 +1441,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
@@ -1454,31 +1457,31 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
@@ -1486,39 +1489,39 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
@@ -1526,7 +1529,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
@@ -1534,7 +1537,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B56" s="1">
         <v>2</v>
@@ -1542,7 +1545,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1">
         <v>2</v>
@@ -1550,15 +1553,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B59" s="1">
         <v>4</v>
@@ -1566,7 +1569,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -1574,50 +1577,50 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1630,15 +1633,15 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B68" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B69" s="1">
         <v>3</v>
@@ -1646,15 +1649,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B70" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B71" s="1">
         <v>4</v>
@@ -1662,15 +1665,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B72" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
@@ -1678,103 +1681,103 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B74" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B76" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B77" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B78" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B79" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B80" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B83" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B84" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B85" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B86" s="1">
         <v>3</v>
@@ -1782,7 +1785,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B87" s="1">
         <v>3</v>
@@ -1790,7 +1793,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B88" s="1">
         <v>3</v>
@@ -1798,7 +1801,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -1806,7 +1809,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B90" s="1">
         <v>3</v>
@@ -1814,7 +1817,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -1822,7 +1825,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B92" s="1">
         <v>3</v>
@@ -1830,7 +1833,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1">
         <v>3</v>
@@ -1838,7 +1841,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B94" s="1">
         <v>3</v>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B95" s="1">
         <v>3</v>
@@ -1854,7 +1857,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B96" s="1">
         <v>3</v>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B97" s="1">
         <v>3</v>
@@ -1870,7 +1873,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B98" s="1">
         <v>3</v>
@@ -1878,7 +1881,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B99" s="1">
         <v>3</v>
@@ -1886,7 +1889,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1">
         <v>3</v>
@@ -1894,7 +1897,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -1902,7 +1905,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -1910,7 +1913,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -1918,7 +1921,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -1926,7 +1929,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B105" s="1">
         <v>3</v>
@@ -1934,7 +1937,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B106" s="1">
         <v>3</v>
@@ -1942,7 +1945,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B107" s="1">
         <v>3</v>
@@ -1950,7 +1953,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B108" s="1">
         <v>3</v>
@@ -1958,7 +1961,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B109" s="1">
         <v>3</v>
@@ -1966,7 +1969,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B110" s="1">
         <v>3</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B111" s="1">
         <v>3</v>
@@ -1982,7 +1985,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B112" s="1">
         <v>3</v>
@@ -1990,7 +1993,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B113" s="1">
         <v>3</v>
@@ -1998,7 +2001,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B114" s="1">
         <v>3</v>
@@ -2006,7 +2009,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B115" s="1">
         <v>3</v>
@@ -2014,7 +2017,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B116" s="1">
         <v>3</v>
@@ -2022,7 +2025,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B117" s="1">
         <v>3</v>
@@ -2030,7 +2033,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B118" s="1">
         <v>3</v>
@@ -2038,7 +2041,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B119" s="1">
         <v>3</v>
@@ -2046,7 +2049,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B120" s="1">
         <v>3</v>
@@ -2054,7 +2057,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B121" s="1">
         <v>3</v>
@@ -2062,7 +2065,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B122" s="1">
         <v>3</v>
@@ -2070,7 +2073,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B123" s="1">
         <v>3</v>
@@ -2078,7 +2081,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B124" s="1">
         <v>3</v>
@@ -2086,7 +2089,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B125" s="1">
         <v>3</v>
@@ -2094,7 +2097,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B126" s="1">
         <v>3</v>
@@ -2102,7 +2105,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B127" s="1">
         <v>3</v>
@@ -2110,7 +2113,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B128" s="1">
         <v>3</v>
@@ -2118,7 +2121,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B129" s="1">
         <v>3</v>
@@ -2126,7 +2129,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B130" s="1">
         <v>3</v>
@@ -2134,7 +2137,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B131" s="1">
         <v>3</v>
@@ -2142,7 +2145,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B132" s="1">
         <v>3</v>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B133" s="1">
         <v>3</v>
@@ -2158,7 +2161,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B134" s="1">
         <v>3</v>
@@ -2166,7 +2169,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B135" s="1">
         <v>3</v>
@@ -2174,7 +2177,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B136" s="1">
         <v>3</v>
@@ -2182,7 +2185,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B137" s="1">
         <v>3</v>
@@ -2190,7 +2193,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B138" s="1">
         <v>3</v>
@@ -2198,7 +2201,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B139" s="1">
         <v>3</v>
@@ -2206,7 +2209,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B140" s="1">
         <v>3</v>
@@ -2214,7 +2217,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B141" s="1">
         <v>3</v>
@@ -2222,7 +2225,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B142" s="1">
         <v>3</v>
@@ -2230,7 +2233,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B143" s="1">
         <v>3</v>
@@ -2238,7 +2241,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B144" s="1">
         <v>3</v>
@@ -2246,7 +2249,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B145" s="1">
         <v>3</v>
@@ -2254,7 +2257,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B146" s="1">
         <v>3</v>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B147" s="1">
         <v>3</v>
@@ -2270,7 +2273,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B148" s="1">
         <v>3</v>
@@ -2278,7 +2281,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B149" s="1">
         <v>3</v>
@@ -2286,31 +2289,31 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B150" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B151" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="B152" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1">
         <v>1</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1">
         <v>1</v>
@@ -2326,7 +2329,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1">
         <v>1</v>
@@ -2334,7 +2337,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B156" s="1">
         <v>1</v>
@@ -2342,7 +2345,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1">
         <v>1</v>
@@ -2350,7 +2353,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1">
         <v>1</v>
@@ -2358,7 +2361,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B159" s="1">
         <v>1</v>
@@ -2366,7 +2369,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B160" s="1">
         <v>1</v>
@@ -2374,7 +2377,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1">
         <v>1</v>
@@ -2382,7 +2385,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B162" s="1">
         <v>1</v>
@@ -2390,7 +2393,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1">
         <v>1</v>
@@ -2398,7 +2401,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B164" s="1">
         <v>1</v>
@@ -2406,7 +2409,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B165" s="1">
         <v>1</v>
@@ -2414,7 +2417,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B166" s="1">
         <v>1</v>
@@ -2422,7 +2425,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B167" s="1">
         <v>1</v>
@@ -2430,7 +2433,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B168" s="1">
         <v>1</v>
@@ -2438,7 +2441,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B169" s="1">
         <v>1</v>
@@ -2446,7 +2449,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B170" s="1">
         <v>1</v>
@@ -2454,7 +2457,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B171" s="1">
         <v>1</v>
@@ -2462,7 +2465,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B172" s="1">
         <v>1</v>
@@ -2470,7 +2473,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B173" s="1">
         <v>1</v>
@@ -2478,7 +2481,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1">
         <v>1</v>
@@ -2486,7 +2489,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1">
         <v>1</v>
@@ -2494,7 +2497,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B176" s="1">
         <v>1</v>
@@ -2502,7 +2505,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B177" s="1">
         <v>1</v>
@@ -2510,7 +2513,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1">
         <v>1</v>
@@ -2518,7 +2521,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="B179" s="1">
         <v>1</v>
@@ -2526,7 +2529,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1">
         <v>1</v>
@@ -2534,7 +2537,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1">
         <v>1</v>
@@ -2542,7 +2545,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1">
         <v>1</v>
@@ -2550,7 +2553,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1">
         <v>1</v>
@@ -2558,15 +2561,15 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1">
         <v>2</v>
@@ -2574,7 +2577,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1">
         <v>2</v>
@@ -2582,7 +2585,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1">
         <v>2</v>
@@ -2590,7 +2593,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1">
         <v>2</v>
@@ -2598,7 +2601,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B189" s="1">
         <v>2</v>
@@ -2606,15 +2609,15 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B190" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B191" s="1">
         <v>1</v>
@@ -2622,7 +2625,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B192" s="1">
         <v>1</v>
@@ -2630,7 +2633,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B193" s="1">
         <v>1</v>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B194" s="1">
         <v>1</v>
@@ -2646,7 +2649,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B195" s="1">
         <v>1</v>
@@ -2654,7 +2657,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1">
         <v>1</v>
@@ -2662,7 +2665,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B197" s="1">
         <v>1</v>
@@ -2670,7 +2673,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B198" s="1">
         <v>1</v>
@@ -2678,7 +2681,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B199" s="1">
         <v>1</v>
@@ -2686,7 +2689,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1">
         <v>1</v>
@@ -2694,7 +2697,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B201" s="1">
         <v>1</v>
@@ -2702,7 +2705,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B202" s="1">
         <v>1</v>
@@ -2710,7 +2713,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B203" s="1">
         <v>1</v>
@@ -2718,7 +2721,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1">
         <v>1</v>
@@ -2726,15 +2729,15 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B205" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1">
         <v>0</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1">
         <v>0</v>
@@ -2750,7 +2753,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1">
         <v>0</v>
@@ -2758,7 +2761,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1">
         <v>0</v>
@@ -2766,31 +2769,31 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B211" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1">
         <v>1</v>
@@ -2798,7 +2801,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1">
         <v>1</v>
@@ -2806,7 +2809,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1">
         <v>1</v>
@@ -2814,7 +2817,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1">
         <v>1</v>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1">
         <v>1</v>
@@ -2830,7 +2833,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1">
         <v>1</v>
@@ -2838,7 +2841,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B219" s="1">
         <v>1</v>
@@ -2846,7 +2849,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B220" s="1">
         <v>1</v>
@@ -2854,7 +2857,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B221" s="1">
         <v>1</v>
@@ -2862,7 +2865,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1">
         <v>1</v>
@@ -2870,7 +2873,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B223" s="1">
         <v>1</v>
@@ -2878,7 +2881,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B224" s="1">
         <v>1</v>
@@ -2886,7 +2889,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B225" s="1">
         <v>1</v>
@@ -2894,7 +2897,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B226" s="1">
         <v>1</v>
@@ -2902,7 +2905,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1">
         <v>1</v>
@@ -2910,7 +2913,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1">
         <v>1</v>
@@ -2918,15 +2921,15 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B229" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B230" s="1">
         <v>3</v>
@@ -2934,15 +2937,15 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B231" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1">
         <v>0</v>
@@ -2950,7 +2953,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1">
         <v>0</v>
@@ -2958,7 +2961,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1">
         <v>0</v>
@@ -2966,7 +2969,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1">
         <v>0</v>
@@ -2974,17 +2977,25 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B237" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1">
         <v>0</v>
       </c>
     </row>
